--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.401376</v>
+        <v>5.712771666666666</v>
       </c>
       <c r="H2">
-        <v>85.204128</v>
+        <v>17.138315</v>
       </c>
       <c r="I2">
-        <v>0.2813463917610604</v>
+        <v>0.1683613830606884</v>
       </c>
       <c r="J2">
-        <v>0.2813463917610605</v>
+        <v>0.1683613830606885</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N2">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O2">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P2">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q2">
-        <v>6368.500315909353</v>
+        <v>76.31926273989777</v>
       </c>
       <c r="R2">
-        <v>57316.50284318419</v>
+        <v>686.8733646590799</v>
       </c>
       <c r="S2">
-        <v>0.2534892730463362</v>
+        <v>0.08292732565119086</v>
       </c>
       <c r="T2">
-        <v>0.2534892730463363</v>
+        <v>0.08292732565119088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.401376</v>
+        <v>5.712771666666666</v>
       </c>
       <c r="H3">
-        <v>85.204128</v>
+        <v>17.138315</v>
       </c>
       <c r="I3">
-        <v>0.2813463917610604</v>
+        <v>0.1683613830606884</v>
       </c>
       <c r="J3">
-        <v>0.2813463917610605</v>
+        <v>0.1683613830606885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.071113</v>
       </c>
       <c r="O3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q3">
-        <v>29.07461168382933</v>
+        <v>5.848189110510555</v>
       </c>
       <c r="R3">
-        <v>261.671505154464</v>
+        <v>52.63370199459499</v>
       </c>
       <c r="S3">
-        <v>0.001157274368256986</v>
+        <v>0.006354551464810267</v>
       </c>
       <c r="T3">
-        <v>0.001157274368256986</v>
+        <v>0.006354551464810267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.401376</v>
+        <v>5.712771666666666</v>
       </c>
       <c r="H4">
-        <v>85.204128</v>
+        <v>17.138315</v>
       </c>
       <c r="I4">
-        <v>0.2813463917610604</v>
+        <v>0.1683613830606884</v>
       </c>
       <c r="J4">
-        <v>0.2813463917610605</v>
+        <v>0.1683613830606885</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N4">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O4">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P4">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q4">
-        <v>670.7895963870826</v>
+        <v>72.77805649876555</v>
       </c>
       <c r="R4">
-        <v>6037.106367483744</v>
+        <v>655.0025084888899</v>
       </c>
       <c r="S4">
-        <v>0.02669984434646719</v>
+        <v>0.07907950594468731</v>
       </c>
       <c r="T4">
-        <v>0.0266998443464672</v>
+        <v>0.07907950594468731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.491124</v>
       </c>
       <c r="I5">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="J5">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N5">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O5">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P5">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q5">
-        <v>3325.446124501881</v>
+        <v>198.1250655125298</v>
       </c>
       <c r="R5">
-        <v>29929.01512051693</v>
+        <v>1783.125589612768</v>
       </c>
       <c r="S5">
-        <v>0.1323647450482024</v>
+        <v>0.2152796192937003</v>
       </c>
       <c r="T5">
-        <v>0.1323647450482024</v>
+        <v>0.2152796192937003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.491124</v>
       </c>
       <c r="I6">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="J6">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.071113</v>
       </c>
       <c r="O6">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P6">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q6">
         <v>15.18191881122356</v>
@@ -818,10 +818,10 @@
         <v>136.637269301012</v>
       </c>
       <c r="S6">
-        <v>0.0006042951043421655</v>
+        <v>0.01649643720431415</v>
       </c>
       <c r="T6">
-        <v>0.0006042951043421655</v>
+        <v>0.01649643720431415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.491124</v>
       </c>
       <c r="I7">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="J7">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N7">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O7">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P7">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q7">
-        <v>350.2668686518057</v>
+        <v>188.9320820725715</v>
       </c>
       <c r="R7">
-        <v>3152.401817866252</v>
+        <v>1700.388738653144</v>
       </c>
       <c r="S7">
-        <v>0.01394188419602593</v>
+        <v>0.2052906662553361</v>
       </c>
       <c r="T7">
-        <v>0.01394188419602593</v>
+        <v>0.2052906662553361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.71632200000001</v>
+        <v>13.388457</v>
       </c>
       <c r="H8">
-        <v>173.148966</v>
+        <v>40.165371</v>
       </c>
       <c r="I8">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="J8">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N8">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O8">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P8">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q8">
-        <v>12941.85235567904</v>
+        <v>178.861895256008</v>
       </c>
       <c r="R8">
-        <v>116476.6712011113</v>
+        <v>1609.757057304072</v>
       </c>
       <c r="S8">
-        <v>0.51513238325806</v>
+        <v>0.194348557650965</v>
       </c>
       <c r="T8">
-        <v>0.51513238325806</v>
+        <v>0.194348557650965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.71632200000001</v>
+        <v>13.388457</v>
       </c>
       <c r="H9">
-        <v>173.148966</v>
+        <v>40.165371</v>
       </c>
       <c r="I9">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="J9">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.071113</v>
       </c>
       <c r="O9">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P9">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q9">
-        <v>59.08444893546201</v>
+        <v>13.705821447547</v>
       </c>
       <c r="R9">
-        <v>531.7600404191581</v>
+        <v>123.352393027923</v>
       </c>
       <c r="S9">
-        <v>0.002351774085898753</v>
+        <v>0.01489253273280937</v>
       </c>
       <c r="T9">
-        <v>0.002351774085898753</v>
+        <v>0.01489253273280937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.71632200000001</v>
+        <v>13.388457</v>
       </c>
       <c r="H10">
-        <v>173.148966</v>
+        <v>40.165371</v>
       </c>
       <c r="I10">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="J10">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N10">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O10">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P10">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q10">
-        <v>1363.156078752202</v>
+        <v>170.562721010314</v>
       </c>
       <c r="R10">
-        <v>12268.40470876982</v>
+        <v>1535.064489092826</v>
       </c>
       <c r="S10">
-        <v>0.0542585265464103</v>
+        <v>0.1853308038021866</v>
       </c>
       <c r="T10">
-        <v>0.0542585265464103</v>
+        <v>0.1853308038021866</v>
       </c>
     </row>
   </sheetData>
